--- a/scripts/Details.xlsx
+++ b/scripts/Details.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Robocon\Website\Official-Website-2022\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC30A579-6B28-4456-8BA8-EF186DD98408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054CA858-9BBA-4398-B659-FB0262329E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{63D6346B-1086-495A-8E73-398F698D2E3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="LEADS" sheetId="5" r:id="rId1"/>
+    <sheet name="SAMBED" sheetId="2" r:id="rId2"/>
+    <sheet name="SIESED" sheetId="3" r:id="rId3"/>
+    <sheet name="SPACED" sheetId="1" r:id="rId4"/>
+    <sheet name="MCSOCD" sheetId="4" r:id="rId5"/>
+    <sheet name="MENTORS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -164,9 +164,6 @@
     <t>https://instagram.com/krrish_verma__/</t>
   </si>
   <si>
-    <t>LIYA MARIA ALEX</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/liya-maria-alex-58817a24b/</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>https://www.instagram.com/yumishiina_arts/</t>
   </si>
   <si>
-    <t>HARIKRISHNAN M</t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/harikrishnan-manoj</t>
   </si>
   <si>
@@ -474,6 +468,12 @@
   </si>
   <si>
     <t>https://www.instagram.com/yakub_mahew/</t>
+  </si>
+  <si>
+    <t>Harikrishnan M</t>
+  </si>
+  <si>
+    <t>Liya Maria Alex</t>
   </si>
 </sst>
 </file>
@@ -882,119 +882,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751E881C-550A-4D66-A69B-D14289E5C90C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64824E1-30E3-41D5-BA26-96F18C7CE940}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>75</v>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A353ED42-F0DB-42E2-9D5F-211DB6096DC9}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{96C27CB4-B7E6-4EE7-A369-775C6897DB7D}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{5844F696-F65E-4016-AE55-B508891C2FA8}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{597190A5-0F14-4071-96D8-1FB49661C912}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{9BDF03D8-E759-4D83-9D2E-A540844F8B8B}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{DAEE32BB-312A-43DD-9596-99B741BDD3BF}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{6DC350D8-E2F1-418D-9675-B69A26D54FEB}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{11310077-C658-4AB2-B3D1-B574126BE35D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1034,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -1049,7 +1044,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
@@ -1061,17 +1056,17 @@
     </row>
     <row r="4" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1079,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
@@ -1094,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
@@ -1109,7 +1104,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
@@ -1121,38 +1116,38 @@
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1181,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E677DDE-7B2E-46C7-806F-29A0E578CFDB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1208,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -1225,32 +1220,32 @@
     </row>
     <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54" thickBot="1" x14ac:dyDescent="0.35">
@@ -1258,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
@@ -1273,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
@@ -1285,77 +1280,77 @@
     </row>
     <row r="7" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1386,11 +1381,128 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751E881C-550A-4D66-A69B-D14289E5C90C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A353ED42-F0DB-42E2-9D5F-211DB6096DC9}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{96C27CB4-B7E6-4EE7-A369-775C6897DB7D}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{5844F696-F65E-4016-AE55-B508891C2FA8}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{597190A5-0F14-4071-96D8-1FB49661C912}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{9BDF03D8-E759-4D83-9D2E-A540844F8B8B}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{DAEE32BB-312A-43DD-9596-99B741BDD3BF}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{6DC350D8-E2F1-418D-9675-B69A26D54FEB}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{11310077-C658-4AB2-B3D1-B574126BE35D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488B0ED3-F4E5-40AB-B9CE-1F8CE29161FA}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
@@ -1433,17 +1545,17 @@
     </row>
     <row r="3" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1451,7 +1563,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
@@ -1463,77 +1575,77 @@
     </row>
     <row r="5" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1559,124 +1671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64824E1-30E3-41D5-BA26-96F18C7CE940}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFDC825-D745-40E8-8967-CE8ADAB93764}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,40 +1706,40 @@
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1747,80 +1747,80 @@
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
